--- a/設計書/01_バッチ設計書/クラス図設計書.xlsx
+++ b/設計書/01_バッチ設計書/クラス図設計書.xlsx
@@ -240,13 +240,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・JSON整形 (病床情報取得API格納クラス)</t>
-    <rPh sb="5" eb="7">
-      <t>セイケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・陽性者数</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -437,6 +430,16 @@
   </si>
   <si>
     <t>・アップロード日付</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・死者数の情報の更新日時</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>コウシンニチジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1056,7 +1059,7 @@
   <dimension ref="B2:AZ35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="AL5" sqref="AL5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1474,9 +1477,7 @@
       <c r="AZ12" s="18"/>
     </row>
     <row r="13" spans="2:52" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="14" t="s">
-        <v>28</v>
-      </c>
+      <c r="C13" s="14"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -1488,7 +1489,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="15"/>
       <c r="P13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -1513,7 +1514,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="18"/>
       <c r="P14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
@@ -1524,7 +1525,7 @@
       <c r="W14" s="3"/>
       <c r="X14" s="4"/>
       <c r="AA14" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AB14" s="12"/>
       <c r="AC14" s="12"/>
@@ -1539,7 +1540,7 @@
     <row r="15" spans="2:52" x14ac:dyDescent="0.15">
       <c r="G15" s="20"/>
       <c r="P15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -1550,7 +1551,7 @@
       <c r="W15" s="3"/>
       <c r="X15" s="4"/>
       <c r="AA15" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
@@ -1565,7 +1566,7 @@
     <row r="16" spans="2:52" x14ac:dyDescent="0.15">
       <c r="G16" s="4"/>
       <c r="P16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -1576,7 +1577,7 @@
       <c r="W16" s="3"/>
       <c r="X16" s="4"/>
       <c r="AA16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
@@ -1591,7 +1592,7 @@
     <row r="17" spans="7:42" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="G17" s="4"/>
       <c r="P17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -1604,7 +1605,7 @@
       <c r="Y17" s="6"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
@@ -1619,7 +1620,7 @@
     <row r="18" spans="7:42" x14ac:dyDescent="0.15">
       <c r="G18" s="4"/>
       <c r="P18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
@@ -1630,7 +1631,7 @@
       <c r="W18" s="3"/>
       <c r="X18" s="4"/>
       <c r="AA18" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
@@ -1645,7 +1646,7 @@
     <row r="19" spans="7:42" x14ac:dyDescent="0.15">
       <c r="G19" s="4"/>
       <c r="P19" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -1656,7 +1657,7 @@
       <c r="W19" s="3"/>
       <c r="X19" s="4"/>
       <c r="AA19" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
@@ -1680,7 +1681,7 @@
       <c r="W20" s="9"/>
       <c r="X20" s="15"/>
       <c r="AA20" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
@@ -1695,7 +1696,7 @@
     <row r="21" spans="7:42" x14ac:dyDescent="0.15">
       <c r="G21" s="4"/>
       <c r="P21" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
@@ -1705,23 +1706,23 @@
       <c r="V21" s="10"/>
       <c r="W21" s="10"/>
       <c r="X21" s="19"/>
-      <c r="AA21" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="9"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="15"/>
+      <c r="AA21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="4"/>
       <c r="AP21" s="4"/>
     </row>
     <row r="22" spans="7:42" x14ac:dyDescent="0.15">
       <c r="G22" s="4"/>
       <c r="P22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
@@ -1731,17 +1732,17 @@
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="4"/>
-      <c r="AA22" s="2" t="s">
+      <c r="AA22" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="4"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="15"/>
       <c r="AP22" s="4"/>
     </row>
     <row r="23" spans="7:42" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
@@ -1756,7 +1757,7 @@
       <c r="W23" s="7"/>
       <c r="X23" s="18"/>
       <c r="AA23" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
@@ -1770,21 +1771,23 @@
     </row>
     <row r="24" spans="7:42" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="G24" s="4"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="7"/>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="7"/>
-      <c r="AH24" s="7"/>
-      <c r="AI24" s="18"/>
+      <c r="AA24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="4"/>
       <c r="AP24" s="4"/>
     </row>
-    <row r="25" spans="7:42" x14ac:dyDescent="0.15">
+    <row r="25" spans="7:42" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="G25" s="4"/>
       <c r="P25" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q25" s="22"/>
       <c r="R25" s="22"/>
@@ -1795,12 +1798,21 @@
       <c r="W25" s="22"/>
       <c r="X25" s="22"/>
       <c r="Y25" s="23"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="18"/>
       <c r="AP25" s="4"/>
     </row>
     <row r="26" spans="7:42" x14ac:dyDescent="0.15">
       <c r="G26" s="4"/>
       <c r="P26" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
@@ -1816,7 +1828,7 @@
     <row r="27" spans="7:42" x14ac:dyDescent="0.15">
       <c r="G27" s="4"/>
       <c r="P27" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
@@ -1832,7 +1844,7 @@
     <row r="28" spans="7:42" x14ac:dyDescent="0.15">
       <c r="G28" s="4"/>
       <c r="P28" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
@@ -1856,7 +1868,7 @@
       <c r="N29" s="7"/>
       <c r="O29" s="18"/>
       <c r="P29" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
@@ -1887,7 +1899,7 @@
     </row>
     <row r="30" spans="7:42" x14ac:dyDescent="0.15">
       <c r="P30" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
@@ -1901,7 +1913,7 @@
     </row>
     <row r="31" spans="7:42" x14ac:dyDescent="0.15">
       <c r="P31" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
@@ -1915,7 +1927,7 @@
     </row>
     <row r="32" spans="7:42" x14ac:dyDescent="0.15">
       <c r="P32" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q32" s="9"/>
       <c r="R32" s="9"/>
@@ -1929,7 +1941,7 @@
     </row>
     <row r="33" spans="16:25" x14ac:dyDescent="0.15">
       <c r="P33" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
@@ -1943,7 +1955,7 @@
     </row>
     <row r="34" spans="16:25" x14ac:dyDescent="0.15">
       <c r="P34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
@@ -1970,5 +1982,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/設計書/01_バッチ設計書/クラス図設計書.xlsx
+++ b/設計書/01_バッチ設計書/クラス図設計書.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>●</t>
     <phoneticPr fontId="1"/>
@@ -440,6 +440,30 @@
     <rPh sb="8" eb="12">
       <t>コウシンニチジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・excelUrl(出典)</t>
+    <rPh sb="10" eb="12">
+      <t>シュッテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>病床情報Excel取得URL情報格納クラス</t>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・SickBedApiUpdateDateBean.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -493,7 +517,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -697,13 +721,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -774,6 +807,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1056,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AZ35"/>
+  <dimension ref="B2:AZ44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AL5" sqref="AL5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1898,6 +1934,8 @@
       <c r="AP29" s="18"/>
     </row>
     <row r="30" spans="7:42" x14ac:dyDescent="0.15">
+      <c r="G30" s="4"/>
+      <c r="H30" s="24"/>
       <c r="P30" s="2" t="s">
         <v>50</v>
       </c>
@@ -1912,6 +1950,8 @@
       <c r="Y30" s="4"/>
     </row>
     <row r="31" spans="7:42" x14ac:dyDescent="0.15">
+      <c r="G31" s="4"/>
+      <c r="H31" s="3"/>
       <c r="P31" s="2" t="s">
         <v>51</v>
       </c>
@@ -1926,6 +1966,8 @@
       <c r="Y31" s="4"/>
     </row>
     <row r="32" spans="7:42" x14ac:dyDescent="0.15">
+      <c r="G32" s="4"/>
+      <c r="H32" s="3"/>
       <c r="P32" s="14" t="s">
         <v>52</v>
       </c>
@@ -1939,7 +1981,9 @@
       <c r="X32" s="9"/>
       <c r="Y32" s="15"/>
     </row>
-    <row r="33" spans="16:25" x14ac:dyDescent="0.15">
+    <row r="33" spans="7:25" x14ac:dyDescent="0.15">
+      <c r="G33" s="4"/>
+      <c r="H33" s="3"/>
       <c r="P33" s="2" t="s">
         <v>42</v>
       </c>
@@ -1953,7 +1997,9 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="4"/>
     </row>
-    <row r="34" spans="16:25" x14ac:dyDescent="0.15">
+    <row r="34" spans="7:25" x14ac:dyDescent="0.15">
+      <c r="G34" s="4"/>
+      <c r="H34" s="3"/>
       <c r="P34" s="2" t="s">
         <v>44</v>
       </c>
@@ -1967,7 +2013,9 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="4"/>
     </row>
-    <row r="35" spans="16:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="7:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G35" s="4"/>
+      <c r="H35" s="3"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
@@ -1979,6 +2027,126 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="18"/>
     </row>
+    <row r="36" spans="7:25" x14ac:dyDescent="0.15">
+      <c r="G36" s="4"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="7:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G37" s="4"/>
+      <c r="H37" s="3"/>
+      <c r="Q37" s="7"/>
+    </row>
+    <row r="38" spans="7:25" x14ac:dyDescent="0.15">
+      <c r="G38" s="4"/>
+      <c r="H38" s="3"/>
+      <c r="P38" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="23"/>
+    </row>
+    <row r="39" spans="7:25" x14ac:dyDescent="0.15">
+      <c r="G39" s="4"/>
+      <c r="H39" s="3"/>
+      <c r="P39" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="15"/>
+    </row>
+    <row r="40" spans="7:25" x14ac:dyDescent="0.15">
+      <c r="G40" s="4"/>
+      <c r="H40" s="3"/>
+      <c r="P40" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="19"/>
+    </row>
+    <row r="41" spans="7:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G41" s="4"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="15"/>
+    </row>
+    <row r="42" spans="7:25" x14ac:dyDescent="0.15">
+      <c r="P42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="4"/>
+    </row>
+    <row r="43" spans="7:25" x14ac:dyDescent="0.15">
+      <c r="P43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="4"/>
+    </row>
+    <row r="44" spans="7:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="P44" s="6"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="18"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
